--- a/credit_authorship.xlsx
+++ b/credit_authorship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myharrisburgu-my.sharepoint.com/personal/ebuchanan_harrisburgu_edu/Documents/Research/2 projects/PSA-projects/SPAML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EA2526-A217-0545-8259-2BD5C7F99B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{C6EA2526-A217-0545-8259-2BD5C7F99B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13FBA805-9B95-A240-A2E4-01C754CA0243}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7E93375B-A39C-8A46-B4E8-4D05F0C7C860}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -260,6 +260,39 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Montefinese</t>
+  </si>
+  <si>
+    <t>Henninger</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>K. D.</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>extensive comments on power analysis</t>
+  </si>
+  <si>
+    <t>programming the experiment in lab.js</t>
   </si>
 </sst>
 </file>
@@ -618,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10BBDFE-120A-1F47-87B9-645D5DC309CA}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="242" zoomScaleNormal="242" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -641,7 +674,7 @@
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -690,8 +723,11 @@
       <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -739,6 +775,62 @@
       </c>
       <c r="P2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +843,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
